--- a/Bresnahan/Endelige_ny std/Brestablemaker.xlsx
+++ b/Bresnahan/Endelige_ny std/Brestablemaker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Desktop\11. Semester\DATA\Bresnahan\github\Endelige\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\GitHub\ftgj\thesis_2020\Bresnahan\Endelige_ny std\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEA8DAB-119E-40F1-9841-D80CBDFBDC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F1482-3056-4E2E-AA71-03230C080615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{7B0DF94F-AF58-44AA-8B01-A9E2461250E9}"/>
+    <workbookView minimized="1" xWindow="4425" yWindow="1290" windowWidth="7500" windowHeight="14190" firstSheet="2" activeTab="8" xr2:uid="{7B0DF94F-AF58-44AA-8B01-A9E2461250E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametrer" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Pate til latex 2" sheetId="10" r:id="rId6"/>
     <sheet name="Paste 3" sheetId="12" r:id="rId7"/>
     <sheet name="S - værdier" sheetId="5" r:id="rId8"/>
-    <sheet name="S_figur_by" sheetId="7" r:id="rId9"/>
-    <sheet name="S_figur_kom" sheetId="8" r:id="rId10"/>
-    <sheet name="Restricted og unrestricted" sheetId="6" r:id="rId11"/>
+    <sheet name="S -værdier endelig" sheetId="13" r:id="rId9"/>
+    <sheet name="S_figur_by" sheetId="7" r:id="rId10"/>
+    <sheet name="S_figur_kom" sheetId="8" r:id="rId11"/>
+    <sheet name="Restricted og unrestricted" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="372">
   <si>
     <t>lambda - befolkning</t>
   </si>
@@ -1152,6 +1153,36 @@
   </si>
   <si>
     <t>(0.18)</t>
+  </si>
+  <si>
+    <t>Byer(1)</t>
+  </si>
+  <si>
+    <t>Byer(2)</t>
+  </si>
+  <si>
+    <t>Kommuner(1)</t>
+  </si>
+  <si>
+    <t>Kommuner(2)</t>
+  </si>
+  <si>
+    <t>SN_S5_ratio = S_vals[5-1]* np.arange(1,5+1) / (S_vals * 5)</t>
+  </si>
+  <si>
+    <t>S_værdier</t>
+  </si>
+  <si>
+    <t>S * 5</t>
+  </si>
+  <si>
+    <t>S5 * (1-5)</t>
+  </si>
+  <si>
+    <t>S3 * (1-3)</t>
+  </si>
+  <si>
+    <t>S * 3</t>
   </si>
 </sst>
 </file>
@@ -3288,6 +3319,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469E5376-6B2B-4ADA-AEBA-FB0B68F64307}">
+  <dimension ref="B2:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF37008-7B4D-4DC9-9815-032F2FA715E4}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -3308,7 +3369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE78CFB-AB20-4B24-B411-78D372D9953D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7357,7 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A7131A-9178-4579-B137-67F3021E0616}">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -8113,7 +8174,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8367,31 +8428,463 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469E5376-6B2B-4ADA-AEBA-FB0B68F64307}">
-  <dimension ref="B2:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C24BD6F-54BC-44A0-B801-29CD52562AE5}">
+  <dimension ref="B1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="U2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="AC2">
+      <c r="R2">
         <v>4</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3">
+        <v>1.74</v>
+      </c>
+      <c r="D3">
+        <v>10.44</v>
+      </c>
+      <c r="E3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F3">
+        <v>23.22</v>
+      </c>
+      <c r="G3">
+        <v>26.16</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3:M6">C3:G6*5</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J3">
+        <v>52.199999999999996</v>
+      </c>
+      <c r="K3">
+        <v>85.5</v>
+      </c>
+      <c r="L3">
+        <v>116.1</v>
+      </c>
+      <c r="M3">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="O3">
+        <f>$G3*O$2</f>
+        <v>26.16</v>
+      </c>
+      <c r="P3">
+        <f>$G3*P$2</f>
+        <v>52.32</v>
+      </c>
+      <c r="Q3">
+        <f>$G3*Q$2</f>
+        <v>78.48</v>
+      </c>
+      <c r="R3">
+        <f>$G3*R$2</f>
+        <v>104.64</v>
+      </c>
+      <c r="S3">
+        <f>$G3*S$2</f>
+        <v>130.80000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D4">
+        <v>14.49</v>
+      </c>
+      <c r="E4">
+        <v>23.85</v>
+      </c>
+      <c r="F4">
+        <v>36.31</v>
+      </c>
+      <c r="G4">
+        <v>46.56</v>
+      </c>
+      <c r="I4">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J4">
+        <v>72.45</v>
+      </c>
+      <c r="K4">
+        <v>119.25</v>
+      </c>
+      <c r="L4">
+        <v>181.55</v>
+      </c>
+      <c r="M4">
+        <v>232.8</v>
+      </c>
+      <c r="O4">
+        <f>$G4*O$2</f>
+        <v>46.56</v>
+      </c>
+      <c r="P4">
+        <f>$G4*P$2</f>
+        <v>93.12</v>
+      </c>
+      <c r="Q4">
+        <f>$G4*Q$2</f>
+        <v>139.68</v>
+      </c>
+      <c r="R4">
+        <f>$G4*R$2</f>
+        <v>186.24</v>
+      </c>
+      <c r="S4">
+        <f>$G4*S$2</f>
+        <v>232.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5">
+        <v>1.95</v>
+      </c>
+      <c r="D5">
+        <v>12.55</v>
+      </c>
+      <c r="E5">
+        <v>20.87</v>
+      </c>
+      <c r="F5">
+        <v>26.91</v>
+      </c>
+      <c r="G5">
+        <v>32.03</v>
+      </c>
+      <c r="I5">
+        <v>9.75</v>
+      </c>
+      <c r="J5">
+        <v>62.75</v>
+      </c>
+      <c r="K5">
+        <v>104.35000000000001</v>
+      </c>
+      <c r="L5">
+        <v>134.55000000000001</v>
+      </c>
+      <c r="M5">
+        <v>160.15</v>
+      </c>
+      <c r="O5">
+        <f>$G5*O$2</f>
+        <v>32.03</v>
+      </c>
+      <c r="P5">
+        <f>$G5*P$2</f>
+        <v>64.06</v>
+      </c>
+      <c r="Q5">
+        <f>$G5*Q$2</f>
+        <v>96.09</v>
+      </c>
+      <c r="R5">
+        <f>$G5*R$2</f>
+        <v>128.12</v>
+      </c>
+      <c r="S5">
+        <f>$G5*S$2</f>
+        <v>160.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6">
+        <v>1.49</v>
+      </c>
+      <c r="D6">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="E6">
+        <v>65.47</v>
+      </c>
+      <c r="F6">
+        <v>121.73</v>
+      </c>
+      <c r="G6">
+        <v>147.47</v>
+      </c>
+      <c r="I6">
+        <v>7.45</v>
+      </c>
+      <c r="J6">
+        <v>176.14999999999998</v>
+      </c>
+      <c r="K6">
+        <v>327.35000000000002</v>
+      </c>
+      <c r="L6">
+        <v>608.65</v>
+      </c>
+      <c r="M6">
+        <v>737.35</v>
+      </c>
+      <c r="O6">
+        <f>$G6*O$2</f>
+        <v>147.47</v>
+      </c>
+      <c r="P6">
+        <f>$G6*P$2</f>
+        <v>294.94</v>
+      </c>
+      <c r="Q6">
+        <f>$G6*Q$2</f>
+        <v>442.40999999999997</v>
+      </c>
+      <c r="R6">
+        <f>$G6*R$2</f>
+        <v>589.88</v>
+      </c>
+      <c r="S6">
+        <f>$G6*S$2</f>
+        <v>737.35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>371</v>
+      </c>
+      <c r="O7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8">
+        <v>2.71</v>
+      </c>
+      <c r="D8">
+        <v>16.25</v>
+      </c>
+      <c r="E8">
+        <v>26.13</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8:K9">C8:E9*3</f>
+        <v>8.129999999999999</v>
+      </c>
+      <c r="J8">
+        <v>48.75</v>
+      </c>
+      <c r="K8">
+        <v>78.39</v>
+      </c>
+      <c r="O8">
+        <f>$E8*O$2</f>
+        <v>26.13</v>
+      </c>
+      <c r="P8">
+        <f>$E8*P$2</f>
+        <v>52.26</v>
+      </c>
+      <c r="Q8">
+        <f>$E8*Q$2</f>
+        <v>78.39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9">
+        <v>1.37</v>
+      </c>
+      <c r="D9">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="E9">
+        <v>57.2</v>
+      </c>
+      <c r="I9">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J9">
+        <v>101.94</v>
+      </c>
+      <c r="K9">
+        <v>171.60000000000002</v>
+      </c>
+      <c r="O9">
+        <f>$E9*O$2</f>
+        <v>57.2</v>
+      </c>
+      <c r="P9">
+        <f>$E9*P$2</f>
+        <v>114.4</v>
+      </c>
+      <c r="Q9">
+        <f>$E9*Q$2</f>
+        <v>171.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>O3/I3</f>
+        <v>3.0068965517241382</v>
+      </c>
+      <c r="C12">
+        <f>P3/J3</f>
+        <v>1.0022988505747128</v>
+      </c>
+      <c r="D12">
+        <f>Q3/K3</f>
+        <v>0.91789473684210532</v>
+      </c>
+      <c r="E12">
+        <f>R3/L3</f>
+        <v>0.90129198966408275</v>
+      </c>
+      <c r="F12">
+        <f>S3/M3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>O4/I4</f>
+        <v>16.628571428571426</v>
+      </c>
+      <c r="C13">
+        <f>P4/J4</f>
+        <v>1.2853002070393376</v>
+      </c>
+      <c r="D13">
+        <f>Q4/K4</f>
+        <v>1.1713207547169813</v>
+      </c>
+      <c r="E13">
+        <f>R4/L4</f>
+        <v>1.0258331038281465</v>
+      </c>
+      <c r="F13">
+        <f>S4/M4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>O5/I5</f>
+        <v>3.2851282051282054</v>
+      </c>
+      <c r="C14">
+        <f>P5/J5</f>
+        <v>1.0208764940239043</v>
+      </c>
+      <c r="D14">
+        <f>Q5/K5</f>
+        <v>0.92084331576425482</v>
+      </c>
+      <c r="E14">
+        <f>R5/L5</f>
+        <v>0.95221107395020432</v>
+      </c>
+      <c r="F14">
+        <f>S5/M5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>O6/I6</f>
+        <v>19.794630872483221</v>
+      </c>
+      <c r="C15">
+        <f>P6/J6</f>
+        <v>1.6743684359920525</v>
+      </c>
+      <c r="D15">
+        <f>Q6/K6</f>
+        <v>1.3514892317091796</v>
+      </c>
+      <c r="E15">
+        <f>R6/L6</f>
+        <v>0.96916125852296064</v>
+      </c>
+      <c r="F15">
+        <f>S6/M6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>O8/I8</f>
+        <v>3.2140221402214024</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="0">P8/J8</f>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>O9/I9</f>
+        <v>13.917274939172749</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18" si="1">P9/J9</f>
+        <v>1.1222287620168727</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="2">Q9/K9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>